--- a/BalanceSheet/ORLY_bal.xlsx
+++ b/BalanceSheet/ORLY_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30915000.0</v>
+        <v>3622000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-122625000.0</v>
+        <v>3653000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1847000.0</v>
+        <v>3527000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>28851000.0</v>
+        <v>3529000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-106937000.0</v>
+        <v>3557000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3454092000.0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>134091000.0</v>
+        <v>4318000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>99177000.0</v>
+        <v>4185000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>146928000.0</v>
+        <v>4084000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>177919000.0</v>
+        <v>3936000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>156584000.0</v>
+        <v>3758000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>3604722000.0</v>
@@ -3195,19 +3195,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10551000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-19868000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>17262000.0</v>
+        <v>174000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>73719000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-58732000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>133280000.0</v>
@@ -4734,7 +4734,7 @@
         <v>6163000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>5822000000.0</v>
+        <v>4166121000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3969550000.0</v>
@@ -4861,7 +4861,7 @@
         <v>6450000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>5862000000.0</v>
+        <v>4206527000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4012354000.0</v>
